--- a/experiment_results/DataV2_F_VL0_0.5/Elevator/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_F_VL0_0.5/Elevator/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -555,19 +555,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -631,19 +631,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>6.026785714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>6.026785714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -859,19 +859,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>5.357142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>7.366071428571429</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -1366,19 +1366,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1442,19 +1442,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -1556,19 +1556,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1860,19 +1860,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -3913,19 +3913,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>2.678571428571428</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>4.6875</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H5">
         <v>418</v>
@@ -4293,19 +4293,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H15">
         <v>296</v>
@@ -4331,19 +4331,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>3.125</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>3.125</v>
       </c>
       <c r="H16">
         <v>393</v>
@@ -5421,19 +5421,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -5497,19 +5497,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>6.026785714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>6.026785714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -5535,10 +5535,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
@@ -7119,19 +7119,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -7157,19 +7157,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>3.794642857142857</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>6.696428571428571</v>
+        <v>6.473214285714286</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -7499,19 +7499,19 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>2.901785714285714</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>4.464285714285714</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -7537,19 +7537,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>1.785714285714286</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>1.785714285714286</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -7575,19 +7575,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>3.125</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>3.125</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -7854,19 +7854,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -7930,19 +7930,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3.571428571428571</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>3.571428571428571</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -8044,19 +8044,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -8120,19 +8120,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1.339285714285714</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>1.785714285714286</v>
+        <v>1.5625</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -8158,19 +8158,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>7.366071428571429</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>9.821428571428571</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -8665,19 +8665,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -8741,19 +8741,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -8855,19 +8855,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -9159,19 +9159,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -9552,19 +9552,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3.794642857142857</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>3.794642857142857</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -9666,19 +9666,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -9780,19 +9780,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>5.357142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>7.142857142857142</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H10">
         <v>34</v>
@@ -9856,19 +9856,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.2232142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0.2232142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H12">
         <v>29</v>
@@ -11174,19 +11174,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="D4">
-        <v>91.96428571428571</v>
+        <v>87.27678571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="G4">
-        <v>91.96428571428571</v>
+        <v>87.27678571428571</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -11288,19 +11288,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="D7">
-        <v>83.25892857142857</v>
+        <v>89.73214285714286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="G7">
-        <v>83.25892857142857</v>
+        <v>89.73214285714286</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -11449,10 +11449,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G11">
-        <v>64.95535714285714</v>
+        <v>65.40178571428571</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -11592,19 +11592,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D15">
-        <v>80.58035714285714</v>
+        <v>81.25</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G15">
-        <v>80.58035714285714</v>
+        <v>81.25</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -11985,19 +11985,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>4.017857142857143</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>4.017857142857143</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -12023,19 +12023,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>4.241071428571429</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>9.151785714285714</v>
+        <v>6.473214285714286</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -12070,10 +12070,10 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -12289,19 +12289,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.4464285714285714</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0.4464285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -12365,19 +12365,19 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>3.125</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>4.6875</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -12403,19 +12403,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -12441,19 +12441,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>2.232142857142857</v>
+        <v>3.125</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>2.232142857142857</v>
+        <v>3.125</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -12479,19 +12479,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
         <v>246</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.8928571428571428</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -12720,19 +12720,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -12796,19 +12796,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -12910,19 +12910,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -14418,19 +14418,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -14456,19 +14456,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>3.125</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>5.357142857142857</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -14646,19 +14646,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>3.125</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>4.6875</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -14836,19 +14836,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>2.455357142857143</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>2.455357142857143</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -15964,19 +15964,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -16040,19 +16040,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -16154,19 +16154,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -16496,19 +16496,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H16">
         <v>21</v>
@@ -16775,19 +16775,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D2">
-        <v>76.78571428571429</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G2">
-        <v>76.78571428571429</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -16851,19 +16851,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D4">
-        <v>89.73214285714286</v>
+        <v>86.83035714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G4">
-        <v>89.73214285714286</v>
+        <v>86.83035714285714</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -16965,19 +16965,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>412</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>412</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -18473,19 +18473,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1.339285714285714</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1.339285714285714</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -19208,19 +19208,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>2.678571428571428</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>2.678571428571428</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -19284,19 +19284,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3.794642857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3.794642857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -20019,19 +20019,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -20095,19 +20095,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>2.008928571428572</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -20133,19 +20133,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -20209,19 +20209,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -20285,19 +20285,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>2.232142857142857</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -20361,19 +20361,19 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0.2232142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E11">
         <v>86</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>0.2232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -20475,19 +20475,19 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>5.580357142857143</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>7.366071428571429</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H14">
         <v>16</v>
@@ -20551,19 +20551,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>1.339285714285714</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H16">
         <v>21</v>
@@ -20830,19 +20830,19 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2.232142857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -21020,19 +21020,19 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -22528,19 +22528,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -22566,19 +22566,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>3.125</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>5.357142857142857</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -22756,19 +22756,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>3.125</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>4.6875</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -22946,19 +22946,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>2.455357142857143</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>2.455357142857143</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -23339,19 +23339,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -23377,19 +23377,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>2.678571428571428</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>4.241071428571429</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -23567,19 +23567,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>18.97321428571428</v>
+        <v>16.74107142857143</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G10">
-        <v>42.85714285714285</v>
+        <v>39.95535714285715</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -23757,19 +23757,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>16.74107142857143</v>
+        <v>9.151785714285714</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>16.74107142857143</v>
+        <v>9.151785714285714</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -23795,19 +23795,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16">
-        <v>18.52678571428572</v>
+        <v>17.63392857142857</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G16">
-        <v>18.52678571428572</v>
+        <v>17.63392857142857</v>
       </c>
       <c r="H16">
         <v>399</v>
